--- a/output/results_2023-08-08/preprocessed/ind_coef_product_amount_vs_time.xlsx
+++ b/output/results_2023-08-08/preprocessed/ind_coef_product_amount_vs_time.xlsx
@@ -671,19 +671,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>201261.4717732641</v>
+        <v>201261.4717732604</v>
       </c>
       <c r="F2" t="n">
-        <v>-95.573991008321</v>
+        <v>-95.57399100831999</v>
       </c>
       <c r="G2" t="n">
-        <v>-7713166.358325984</v>
+        <v>-7713166.358378443</v>
       </c>
       <c r="H2" t="n">
-        <v>7849.231400073002</v>
+        <v>7849.231400125716</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.99371223264</v>
+        <v>-1.993712232653</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
@@ -853,19 +853,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>57935.78704951474</v>
+        <v>57935.78704951368</v>
       </c>
       <c r="F3" t="n">
         <v>-28.099577164843</v>
       </c>
       <c r="G3" t="n">
-        <v>-10100345.5450645</v>
+        <v>-10100345.54505127</v>
       </c>
       <c r="H3" t="n">
-        <v>10169.17178900643</v>
+        <v>10169.17178899323</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.558958169712</v>
+        <v>-2.558958169709</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
@@ -1035,16 +1035,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>177721.5931554156</v>
+        <v>177721.5931554129</v>
       </c>
       <c r="F4" t="n">
-        <v>-85.394999984981</v>
+        <v>-85.39499998497899</v>
       </c>
       <c r="G4" t="n">
-        <v>-14229822.17349533</v>
+        <v>-14229822.17349346</v>
       </c>
       <c r="H4" t="n">
-        <v>14377.4485367526</v>
+        <v>14377.44853675082</v>
       </c>
       <c r="I4" t="n">
         <v>-3.62938381226</v>
@@ -1217,19 +1217,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>26101.83388030951</v>
+        <v>26101.83388030914</v>
       </c>
       <c r="F5" t="n">
         <v>-12.883756339955</v>
       </c>
       <c r="G5" t="n">
-        <v>-3069532.010083808</v>
+        <v>-3069532.010078081</v>
       </c>
       <c r="H5" t="n">
-        <v>3094.631907496922</v>
+        <v>3094.631907491194</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.779816708798</v>
+        <v>-0.779816708796</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="n">
@@ -1399,19 +1399,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>-48047.19790948826</v>
+        <v>-48047.19790949146</v>
       </c>
       <c r="F6" t="n">
-        <v>45.573430314504</v>
+        <v>45.573430314505</v>
       </c>
       <c r="G6" t="n">
-        <v>8418745.548228033</v>
+        <v>8418745.548051922</v>
       </c>
       <c r="H6" t="n">
-        <v>-8453.716992027759</v>
+        <v>-8453.716991851035</v>
       </c>
       <c r="I6" t="n">
-        <v>2.132857691241</v>
+        <v>2.132857691197</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="n">
@@ -1581,19 +1581,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>3053.758558725322</v>
+        <v>3053.758558725241</v>
       </c>
       <c r="F7" t="n">
         <v>-1.471065112499</v>
       </c>
       <c r="G7" t="n">
-        <v>-1643253.506734692</v>
+        <v>-1643253.50672989</v>
       </c>
       <c r="H7" t="n">
-        <v>1651.155140781588</v>
+        <v>1651.155140776779</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.414718916384</v>
+        <v>-0.414718916383</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
@@ -1763,16 +1763,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>-46596.62507415885</v>
+        <v>-46596.62507415873</v>
       </c>
       <c r="F8" t="n">
         <v>23.950540632298</v>
       </c>
       <c r="G8" t="n">
-        <v>-1633096.939526122</v>
+        <v>-1633096.939528275</v>
       </c>
       <c r="H8" t="n">
-        <v>1616.540241592665</v>
+        <v>1616.540241594837</v>
       </c>
       <c r="I8" t="n">
         <v>-0.399653032653</v>
@@ -1945,16 +1945,16 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>-316763.8774755405</v>
+        <v>-316763.8774755409</v>
       </c>
       <c r="F9" t="n">
         <v>165.585966193764</v>
       </c>
       <c r="G9" t="n">
-        <v>-24816545.39911112</v>
+        <v>-24816545.39911072</v>
       </c>
       <c r="H9" t="n">
-        <v>24759.40380014373</v>
+        <v>24759.4038001435</v>
       </c>
       <c r="I9" t="n">
         <v>-6.171705038603</v>
@@ -2127,19 +2127,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>304112.0564346008</v>
+        <v>304112.0564345967</v>
       </c>
       <c r="F10" t="n">
-        <v>-142.873267764733</v>
+        <v>-142.873267764731</v>
       </c>
       <c r="G10" t="n">
-        <v>-869481.3728160666</v>
+        <v>-869481.3728953482</v>
       </c>
       <c r="H10" t="n">
-        <v>1035.224707705898</v>
+        <v>1035.22470778549</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.295638247802</v>
+        <v>-0.295638247822</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
@@ -2309,16 +2309,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>3242.943186119926</v>
+        <v>3242.943186119811</v>
       </c>
       <c r="F11" t="n">
         <v>-1.575176798152</v>
       </c>
       <c r="G11" t="n">
-        <v>59393.46427944979</v>
+        <v>59393.46427831472</v>
       </c>
       <c r="H11" t="n">
-        <v>-57.840614342948</v>
+        <v>-57.84061434181</v>
       </c>
       <c r="I11" t="n">
         <v>0.014094550593</v>
@@ -2477,19 +2477,19 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>-277822.71067856</v>
+        <v>-277822.7106785607</v>
       </c>
       <c r="F12" t="n">
         <v>151.687328319668</v>
       </c>
       <c r="G12" t="n">
-        <v>-34960257.25968046</v>
+        <v>-34960257.25964835</v>
       </c>
       <c r="H12" t="n">
-        <v>34967.24176837829</v>
+        <v>34967.2417683463</v>
       </c>
       <c r="I12" t="n">
-        <v>-8.736802647325</v>
+        <v>-8.736802647317001</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
@@ -2659,19 +2659,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>17740.24290729611</v>
+        <v>17740.24290729605</v>
       </c>
       <c r="F13" t="n">
         <v>-8.647072777303</v>
       </c>
       <c r="G13" t="n">
-        <v>-14667946.22210723</v>
+        <v>-14667946.22208733</v>
       </c>
       <c r="H13" t="n">
-        <v>14640.22610004559</v>
+        <v>14640.22610002573</v>
       </c>
       <c r="I13" t="n">
-        <v>-3.652981335278</v>
+        <v>-3.652981335273</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -2791,19 +2791,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>142092.7874301693</v>
+        <v>142092.7874301678</v>
       </c>
       <c r="F14" t="n">
-        <v>-69.579808849703</v>
+        <v>-69.579808849702</v>
       </c>
       <c r="G14" t="n">
-        <v>4649243.657154238</v>
+        <v>4649243.657117721</v>
       </c>
       <c r="H14" t="n">
-        <v>-4594.030255162205</v>
+        <v>-4594.030255125581</v>
       </c>
       <c r="I14" t="n">
-        <v>1.135389950635</v>
+        <v>1.135389950626</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="n">
@@ -2973,19 +2973,19 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>97288.93593344251</v>
+        <v>97288.93593344145</v>
       </c>
       <c r="F15" t="n">
         <v>-47.543348319461</v>
       </c>
       <c r="G15" t="n">
-        <v>-1526482.01748146</v>
+        <v>-1526482.017492515</v>
       </c>
       <c r="H15" t="n">
-        <v>1582.460045673229</v>
+        <v>1582.460045684338</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.409041826184</v>
+        <v>-0.409041826187</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="n">
@@ -3155,19 +3155,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>-94791.73519991212</v>
+        <v>-94791.73519991222</v>
       </c>
       <c r="F16" t="n">
         <v>50.515226180801</v>
       </c>
       <c r="G16" t="n">
-        <v>-746616.898028914</v>
+        <v>-746616.8980566966</v>
       </c>
       <c r="H16" t="n">
-        <v>704.842257629816</v>
+        <v>704.84225765771</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.16420034759</v>
+        <v>-0.164200347597</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="n">
@@ -3337,19 +3337,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>-164505.2208619243</v>
+        <v>-164505.2208619233</v>
       </c>
       <c r="F17" t="n">
-        <v>85.25983271777</v>
+        <v>85.259832717769</v>
       </c>
       <c r="G17" t="n">
-        <v>6764273.976039708</v>
+        <v>6764273.976002651</v>
       </c>
       <c r="H17" t="n">
-        <v>-6870.113758258026</v>
+        <v>-6870.113758220877</v>
       </c>
       <c r="I17" t="n">
-        <v>1.745418890496</v>
+        <v>1.745418890487</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="n">
@@ -3519,19 +3519,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>305463.8923622132</v>
+        <v>305463.8923622089</v>
       </c>
       <c r="F18" t="n">
-        <v>-147.177729652985</v>
+        <v>-147.177729652982</v>
       </c>
       <c r="G18" t="n">
-        <v>-15754290.64393766</v>
+        <v>-15754290.64397463</v>
       </c>
       <c r="H18" t="n">
-        <v>15974.21817646622</v>
+        <v>15974.21817650345</v>
       </c>
       <c r="I18" t="n">
-        <v>-4.045589872011</v>
+        <v>-4.045589872021</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="n">
@@ -3701,19 +3701,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>-66881.08604506758</v>
+        <v>-66881.08604506702</v>
       </c>
       <c r="F19" t="n">
         <v>34.058497340562</v>
       </c>
       <c r="G19" t="n">
-        <v>3272990.145851083</v>
+        <v>3272990.145841915</v>
       </c>
       <c r="H19" t="n">
-        <v>-3318.631998840664</v>
+        <v>-3318.631998831485</v>
       </c>
       <c r="I19" t="n">
-        <v>0.841342201031</v>
+        <v>0.8413422010279999</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="n">
@@ -3883,19 +3883,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>284584.5315891751</v>
+        <v>284584.53158917</v>
       </c>
       <c r="F20" t="n">
-        <v>-139.001388874597</v>
+        <v>-139.001388874595</v>
       </c>
       <c r="G20" t="n">
-        <v>-34598162.54060074</v>
+        <v>-34598162.54058173</v>
       </c>
       <c r="H20" t="n">
-        <v>34877.63442412585</v>
+        <v>34877.634424107</v>
       </c>
       <c r="I20" t="n">
-        <v>-8.787263089494999</v>
+        <v>-8.787263089490001</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="n">
@@ -4065,19 +4065,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>-6539.85952966676</v>
+        <v>-6539.85952966678</v>
       </c>
       <c r="F21" t="n">
         <v>3.542906139792</v>
       </c>
       <c r="G21" t="n">
-        <v>484290.7796362943</v>
+        <v>484290.7796338713</v>
       </c>
       <c r="H21" t="n">
-        <v>-488.292256478942</v>
+        <v>-488.292256476515</v>
       </c>
       <c r="I21" t="n">
-        <v>0.123205219498</v>
+        <v>0.123205219497</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -4233,19 +4233,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>2588.293263787856</v>
+        <v>2588.29326378733</v>
       </c>
       <c r="F22" t="n">
         <v>0.976202853266</v>
       </c>
       <c r="G22" t="n">
-        <v>-642213.5672673961</v>
+        <v>-642213.5672823038</v>
       </c>
       <c r="H22" t="n">
-        <v>648.252974806997</v>
+        <v>648.252974821967</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.162431117519</v>
+        <v>-0.162431117523</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="n">
@@ -4415,19 +4415,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>-137291.9784724432</v>
+        <v>-137291.9784724428</v>
       </c>
       <c r="F23" t="n">
         <v>70.435545930597</v>
       </c>
       <c r="G23" t="n">
-        <v>-6661644.904181499</v>
+        <v>-6661644.904174057</v>
       </c>
       <c r="H23" t="n">
-        <v>6619.830576151051</v>
+        <v>6619.830576143632</v>
       </c>
       <c r="I23" t="n">
-        <v>-1.643540445031</v>
+        <v>-1.643540445029</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
@@ -4597,19 +4597,19 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>3398.291730537761</v>
+        <v>3398.291730537568</v>
       </c>
       <c r="F24" t="n">
         <v>0.765141305131</v>
       </c>
       <c r="G24" t="n">
-        <v>1122409.73247618</v>
+        <v>1122409.73246547</v>
       </c>
       <c r="H24" t="n">
-        <v>-1122.541346285416</v>
+        <v>-1122.541346274673</v>
       </c>
       <c r="I24" t="n">
-        <v>0.281888576884</v>
+        <v>0.281888576881</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="n">
@@ -4779,19 +4779,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>615067.3866901199</v>
+        <v>615067.3866901154</v>
       </c>
       <c r="F25" t="n">
-        <v>-300.431754817336</v>
+        <v>-300.431754817333</v>
       </c>
       <c r="G25" t="n">
-        <v>8756774.193769233</v>
+        <v>8756774.19372512</v>
       </c>
       <c r="H25" t="n">
-        <v>-8473.388476652077</v>
+        <v>-8473.388476607855</v>
       </c>
       <c r="I25" t="n">
-        <v>2.050965755744</v>
+        <v>2.050965755733</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="n">
@@ -4961,19 +4961,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>13961.70409426499</v>
+        <v>13961.70409426487</v>
       </c>
       <c r="F26" t="n">
         <v>-6.650888365346</v>
       </c>
       <c r="G26" t="n">
-        <v>636540.3445875762</v>
+        <v>636540.3445834211</v>
       </c>
       <c r="H26" t="n">
-        <v>-631.6191419834111</v>
+        <v>-631.619141979244</v>
       </c>
       <c r="I26" t="n">
-        <v>0.156832897839</v>
+        <v>0.156832897838</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
@@ -5143,16 +5143,16 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>-36554.39213931247</v>
+        <v>-36554.39213931225</v>
       </c>
       <c r="F27" t="n">
         <v>18.837954342033</v>
       </c>
       <c r="G27" t="n">
-        <v>21411.90820376703</v>
+        <v>21411.90820364954</v>
       </c>
       <c r="H27" t="n">
-        <v>-39.350835214591</v>
+        <v>-39.350835214474</v>
       </c>
       <c r="I27" t="n">
         <v>0.014602208088</v>
@@ -5325,16 +5325,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>4532.534516813919</v>
+        <v>4532.534516813752</v>
       </c>
       <c r="F28" t="n">
         <v>-2.193223453288</v>
       </c>
       <c r="G28" t="n">
-        <v>-4604.200306138251</v>
+        <v>-4604.200307655241</v>
       </c>
       <c r="H28" t="n">
-        <v>6.962210415076</v>
+        <v>6.962210416596</v>
       </c>
       <c r="I28" t="n">
         <v>-0.002293445701</v>
@@ -5493,16 +5493,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>388.448232411474</v>
+        <v>388.448232411421</v>
       </c>
       <c r="F29" t="n">
         <v>-0.083550864989</v>
       </c>
       <c r="G29" t="n">
-        <v>311452.1636706986</v>
+        <v>311452.1636686539</v>
       </c>
       <c r="H29" t="n">
-        <v>-311.78388262779</v>
+        <v>-311.783882625741</v>
       </c>
       <c r="I29" t="n">
         <v>0.078081257118</v>
@@ -5661,16 +5661,16 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>-18150.50749519244</v>
+        <v>-18150.50749519255</v>
       </c>
       <c r="F30" t="n">
         <v>9.140597278145</v>
       </c>
       <c r="G30" t="n">
-        <v>-649294.7542680022</v>
+        <v>-649294.7542707931</v>
       </c>
       <c r="H30" t="n">
-        <v>639.652699556044</v>
+        <v>639.652699558831</v>
       </c>
       <c r="I30" t="n">
         <v>-0.157466533583</v>
@@ -5805,19 +5805,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>36100.56717450757</v>
+        <v>36100.56717450669</v>
       </c>
       <c r="F31" t="n">
         <v>-17.489648632124</v>
       </c>
       <c r="G31" t="n">
-        <v>5484283.370164329</v>
+        <v>5484283.370150772</v>
       </c>
       <c r="H31" t="n">
-        <v>-5476.82258562723</v>
+        <v>-5476.822585613649</v>
       </c>
       <c r="I31" t="n">
-        <v>1.367568575684</v>
+        <v>1.36756857568</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -5973,19 +5973,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>15588.02687851922</v>
+        <v>15588.02687851886</v>
       </c>
       <c r="F32" t="n">
-        <v>-7.527564606987</v>
+        <v>-7.527564606986</v>
       </c>
       <c r="G32" t="n">
-        <v>5102868.332136123</v>
+        <v>5102868.332127046</v>
       </c>
       <c r="H32" t="n">
-        <v>-5105.21938856307</v>
+        <v>-5105.219388553977</v>
       </c>
       <c r="I32" t="n">
-        <v>1.276977100942</v>
+        <v>1.27697710094</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -6227,13 +6227,13 @@
         <v>-0.083908656399</v>
       </c>
       <c r="G34" t="n">
-        <v>148242.9822287896</v>
+        <v>148242.9822271714</v>
       </c>
       <c r="H34" t="n">
-        <v>-147.762164067465</v>
+        <v>-147.762164065852</v>
       </c>
       <c r="I34" t="n">
-        <v>0.036819532243</v>
+        <v>0.036819532242</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -6315,10 +6315,10 @@
         <v>-0.116022099448</v>
       </c>
       <c r="G35" t="n">
-        <v>30675.04932130397</v>
+        <v>30675.04932125906</v>
       </c>
       <c r="H35" t="n">
-        <v>-30.455812935185</v>
+        <v>-30.455812935141</v>
       </c>
       <c r="I35" t="n">
         <v>0.007559508761</v>
@@ -18733,19 +18733,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-64921.59518754928</v>
+        <v>-64921.59518754847</v>
       </c>
       <c r="F2" t="n">
         <v>33.265205919339</v>
       </c>
       <c r="G2" t="n">
-        <v>1139751.228845216</v>
+        <v>1139751.228847431</v>
       </c>
       <c r="H2" t="n">
-        <v>-1178.198979589387</v>
+        <v>-1178.19897959161</v>
       </c>
       <c r="I2" t="n">
-        <v>0.304551279584</v>
+        <v>0.304551279585</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
@@ -18936,16 +18936,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>-3203.819390250193</v>
+        <v>-3203.819390250257</v>
       </c>
       <c r="F3" t="n">
         <v>1.753882147306</v>
       </c>
       <c r="G3" t="n">
-        <v>-620756.3897097433</v>
+        <v>-620756.3897102365</v>
       </c>
       <c r="H3" t="n">
-        <v>622.787914530008</v>
+        <v>622.787914530501</v>
       </c>
       <c r="I3" t="n">
         <v>-0.15612241079</v>
@@ -19139,19 +19139,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>-12938.46224064132</v>
+        <v>-12938.46224064126</v>
       </c>
       <c r="F4" t="n">
         <v>6.872952584465</v>
       </c>
       <c r="G4" t="n">
-        <v>-1227198.988952283</v>
+        <v>-1227198.988954802</v>
       </c>
       <c r="H4" t="n">
-        <v>1227.978891592604</v>
+        <v>1227.978891595132</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.306975130327</v>
+        <v>-0.306975130328</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="n">
@@ -19342,16 +19342,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>-10061.00087243761</v>
+        <v>-10061.00087243747</v>
       </c>
       <c r="F5" t="n">
         <v>5.224580296868</v>
       </c>
       <c r="G5" t="n">
-        <v>106556.1641567508</v>
+        <v>106556.1641567839</v>
       </c>
       <c r="H5" t="n">
-        <v>-112.050015784316</v>
+        <v>-112.050015784349</v>
       </c>
       <c r="I5" t="n">
         <v>0.029481786359</v>
@@ -19545,19 +19545,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>-736904.0684281102</v>
+        <v>-736904.0684281004</v>
       </c>
       <c r="F6" t="n">
-        <v>377.156469763807</v>
+        <v>377.156469763803</v>
       </c>
       <c r="G6" t="n">
-        <v>8086140.065714174</v>
+        <v>8086140.065717249</v>
       </c>
       <c r="H6" t="n">
-        <v>-8495.627710669822</v>
+        <v>-8495.627710672881</v>
       </c>
       <c r="I6" t="n">
-        <v>2.230538721615</v>
+        <v>2.230538721616</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="n">
@@ -19748,16 +19748,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>2159.312262157926</v>
+        <v>2159.312262157895</v>
       </c>
       <c r="F7" t="n">
         <v>-1.056042995658</v>
       </c>
       <c r="G7" t="n">
-        <v>215844.9175889477</v>
+        <v>215844.9175896873</v>
       </c>
       <c r="H7" t="n">
-        <v>-215.946304191687</v>
+        <v>-215.946304192429</v>
       </c>
       <c r="I7" t="n">
         <v>0.054021493</v>
@@ -19951,19 +19951,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>-18350.54771511564</v>
+        <v>-18350.54771511546</v>
       </c>
       <c r="F8" t="n">
-        <v>9.412953489435999</v>
+        <v>9.412953489435001</v>
       </c>
       <c r="G8" t="n">
-        <v>-690692.9470061352</v>
+        <v>-690692.9470081282</v>
       </c>
       <c r="H8" t="n">
-        <v>685.545693342729</v>
+        <v>685.54569334473</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.169973733895</v>
+        <v>-0.169973733896</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="n">
@@ -20154,19 +20154,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>-219237.5199793778</v>
+        <v>-219237.5199793752</v>
       </c>
       <c r="F9" t="n">
-        <v>111.931141724644</v>
+        <v>111.931141724643</v>
       </c>
       <c r="G9" t="n">
-        <v>1090709.634934977</v>
+        <v>1090709.634939472</v>
       </c>
       <c r="H9" t="n">
-        <v>-1205.400860316625</v>
+        <v>-1205.40086032114</v>
       </c>
       <c r="I9" t="n">
-        <v>0.331165503412</v>
+        <v>0.331165503413</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="n">
@@ -20357,19 +20357,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>-238785.9616434507</v>
+        <v>-238785.9616434483</v>
       </c>
       <c r="F10" t="n">
-        <v>123.339878104421</v>
+        <v>123.33987810442</v>
       </c>
       <c r="G10" t="n">
-        <v>-8520124.847953537</v>
+        <v>-8520124.84798027</v>
       </c>
       <c r="H10" t="n">
-        <v>8451.364939083573</v>
+        <v>8451.364939110417</v>
       </c>
       <c r="I10" t="n">
-        <v>-2.093591142909</v>
+        <v>-2.093591142916</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
@@ -20560,19 +20560,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-10202.2298919718</v>
+        <v>-10202.22989197175</v>
       </c>
       <c r="F11" t="n">
         <v>5.287249336489</v>
       </c>
       <c r="G11" t="n">
-        <v>-676884.2119113929</v>
+        <v>-676884.2119126981</v>
       </c>
       <c r="H11" t="n">
-        <v>675.727661229216</v>
+        <v>675.727661230526</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.16854273347</v>
+        <v>-0.168542733471</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
@@ -20763,19 +20763,19 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>-287501.0845300435</v>
+        <v>-287501.0845300406</v>
       </c>
       <c r="F12" t="n">
-        <v>147.540449383074</v>
+        <v>147.540449383073</v>
       </c>
       <c r="G12" t="n">
-        <v>-2090076.293307897</v>
+        <v>-2090076.293317181</v>
       </c>
       <c r="H12" t="n">
-        <v>1960.277703478292</v>
+        <v>1960.27770348762</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.455705960514</v>
+        <v>-0.455705960516</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
@@ -20966,16 +20966,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>411.196541730842</v>
+        <v>411.19654173082</v>
       </c>
       <c r="F13" t="n">
         <v>-0.183622071821</v>
       </c>
       <c r="G13" t="n">
-        <v>-121321.6731463051</v>
+        <v>-121321.6731464356</v>
       </c>
       <c r="H13" t="n">
-        <v>122.235518531491</v>
+        <v>122.235518531622</v>
       </c>
       <c r="I13" t="n">
         <v>-0.030775078919</v>
@@ -21169,19 +21169,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1417.281305941856</v>
+        <v>1417.281305941865</v>
       </c>
       <c r="F14" t="n">
         <v>-0.698964736331</v>
       </c>
       <c r="G14" t="n">
-        <v>-730999.960427325</v>
+        <v>-730999.9604246169</v>
       </c>
       <c r="H14" t="n">
-        <v>728.977301365342</v>
+        <v>728.977301362644</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.181734490163</v>
+        <v>-0.181734490162</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -21298,16 +21298,16 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>-14362.19922992502</v>
+        <v>-14362.1992299249</v>
       </c>
       <c r="F15" t="n">
         <v>7.433040439178</v>
       </c>
       <c r="G15" t="n">
-        <v>-266391.0735459948</v>
+        <v>-266391.0735465999</v>
       </c>
       <c r="H15" t="n">
-        <v>260.882731390033</v>
+        <v>260.882731390641</v>
       </c>
       <c r="I15" t="n">
         <v>-0.06371498936</v>
@@ -21501,19 +21501,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>-75902.36120619132</v>
+        <v>-75902.36120619059</v>
       </c>
       <c r="F16" t="n">
         <v>39.312999167338</v>
       </c>
       <c r="G16" t="n">
-        <v>-2931236.634204287</v>
+        <v>-2931236.634212965</v>
       </c>
       <c r="H16" t="n">
-        <v>2910.744262813662</v>
+        <v>2910.744262822378</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.721852181883</v>
+        <v>-0.721852181885</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="n">
@@ -21704,19 +21704,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>-186199.3632006804</v>
+        <v>-186199.363200678</v>
       </c>
       <c r="F17" t="n">
-        <v>95.05222022888</v>
+        <v>95.05222022887899</v>
       </c>
       <c r="G17" t="n">
-        <v>-14056.59133389211</v>
+        <v>-14056.5913399972</v>
       </c>
       <c r="H17" t="n">
-        <v>-78.061009147945</v>
+        <v>-78.061009141806</v>
       </c>
       <c r="I17" t="n">
-        <v>0.04351912021</v>
+        <v>0.043519120209</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="n">
@@ -21907,19 +21907,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>-119399.1475992635</v>
+        <v>-119399.1475992618</v>
       </c>
       <c r="F18" t="n">
-        <v>60.974062793755</v>
+        <v>60.974062793754</v>
       </c>
       <c r="G18" t="n">
-        <v>7407485.481161495</v>
+        <v>7407485.481180838</v>
       </c>
       <c r="H18" t="n">
-        <v>-7508.34349321662</v>
+        <v>-7508.34349323604</v>
       </c>
       <c r="I18" t="n">
-        <v>1.902858850339</v>
+        <v>1.902858850344</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="n">
@@ -22110,19 +22110,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>-75083.22662597017</v>
+        <v>-75083.22662596914</v>
       </c>
       <c r="F19" t="n">
         <v>38.210619672853</v>
       </c>
       <c r="G19" t="n">
-        <v>1925599.177475735</v>
+        <v>1925599.177478745</v>
       </c>
       <c r="H19" t="n">
-        <v>-1973.750662090725</v>
+        <v>-1973.750662093745</v>
       </c>
       <c r="I19" t="n">
-        <v>0.505789102282</v>
+        <v>0.505789102283</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="n">
@@ -22313,19 +22313,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>3764.959163635592</v>
+        <v>3764.959163635319</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.646442418988</v>
+        <v>-1.646442418987</v>
       </c>
       <c r="G20" t="n">
-        <v>-1726375.38322219</v>
+        <v>-1726375.383223895</v>
       </c>
       <c r="H20" t="n">
-        <v>1738.247592616725</v>
+        <v>1738.247592618431</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.437393825628</v>
+        <v>-0.437393825629</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="n">
@@ -22516,16 +22516,16 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>-16383.26435744613</v>
+        <v>-16383.26435744607</v>
       </c>
       <c r="F21" t="n">
         <v>8.51538342281</v>
       </c>
       <c r="G21" t="n">
-        <v>-942714.1153562309</v>
+        <v>-942714.1153572234</v>
       </c>
       <c r="H21" t="n">
-        <v>940.06843876618</v>
+        <v>940.068438767174</v>
       </c>
       <c r="I21" t="n">
         <v>-0.234184120669</v>
@@ -22719,16 +22719,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>-24830.63649012639</v>
+        <v>-24830.63649012638</v>
       </c>
       <c r="F22" t="n">
         <v>12.729516214354</v>
       </c>
       <c r="G22" t="n">
-        <v>430462.3030133161</v>
+        <v>430462.3030135706</v>
       </c>
       <c r="H22" t="n">
-        <v>-445.12417153066</v>
+        <v>-445.124171530917</v>
       </c>
       <c r="I22" t="n">
         <v>0.115098685073</v>
@@ -22920,19 +22920,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>-368978.4389738787</v>
+        <v>-368978.438973875</v>
       </c>
       <c r="F23" t="n">
-        <v>189.568501735288</v>
+        <v>189.568501735287</v>
       </c>
       <c r="G23" t="n">
-        <v>-12032003.6673294</v>
+        <v>-12032003.66736309</v>
       </c>
       <c r="H23" t="n">
-        <v>11918.34421325009</v>
+        <v>11918.34421328393</v>
       </c>
       <c r="I23" t="n">
-        <v>-2.948509492586</v>
+        <v>-2.948509492595</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
@@ -23123,19 +23123,19 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>-329987.981124723</v>
+        <v>-329987.9811247197</v>
       </c>
       <c r="F24" t="n">
-        <v>169.720488115638</v>
+        <v>169.720488115637</v>
       </c>
       <c r="G24" t="n">
-        <v>-8355842.308865687</v>
+        <v>-8355842.308889559</v>
       </c>
       <c r="H24" t="n">
-        <v>8240.820692418034</v>
+        <v>8240.820692442006</v>
       </c>
       <c r="I24" t="n">
-        <v>-2.029002527914</v>
+        <v>-2.02900252792</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="n">
@@ -23326,19 +23326,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>-10365.35409473125</v>
+        <v>-10365.35409473142</v>
       </c>
       <c r="F25" t="n">
         <v>7.510664003524</v>
       </c>
       <c r="G25" t="n">
-        <v>-5614545.836205584</v>
+        <v>-5614545.836224685</v>
       </c>
       <c r="H25" t="n">
-        <v>5643.284799321505</v>
+        <v>5643.284799340691</v>
       </c>
       <c r="I25" t="n">
-        <v>-1.41678329817</v>
+        <v>-1.416783298175</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="n">
@@ -23529,19 +23529,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>-21572.53769827358</v>
+        <v>-21572.53769827362</v>
       </c>
       <c r="F26" t="n">
         <v>11.614582602173</v>
       </c>
       <c r="G26" t="n">
-        <v>-4486364.365880073</v>
+        <v>-4486364.365891173</v>
       </c>
       <c r="H26" t="n">
-        <v>4501.576743022892</v>
+        <v>4501.576743034035</v>
       </c>
       <c r="I26" t="n">
-        <v>-1.128736398152</v>
+        <v>-1.128736398155</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
@@ -23732,19 +23732,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>-37746.7633992585</v>
+        <v>-37746.76339925813</v>
       </c>
       <c r="F27" t="n">
         <v>19.542012772078</v>
       </c>
       <c r="G27" t="n">
-        <v>-1903695.792949138</v>
+        <v>-1903695.792954839</v>
       </c>
       <c r="H27" t="n">
-        <v>1896.010358523489</v>
+        <v>1896.010358529215</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.471727387928</v>
+        <v>-0.471727387929</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
@@ -24022,16 +24022,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>-315.870855136346</v>
+        <v>-315.870855136347</v>
       </c>
       <c r="F29" t="n">
         <v>0.171254646252</v>
       </c>
       <c r="G29" t="n">
-        <v>-74929.44525753462</v>
+        <v>-74929.44525755827</v>
       </c>
       <c r="H29" t="n">
-        <v>75.204485412433</v>
+        <v>75.204485412457</v>
       </c>
       <c r="I29" t="n">
         <v>-0.018862414848</v>
@@ -24310,16 +24310,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>-15029.67615415951</v>
+        <v>-15029.67615415949</v>
       </c>
       <c r="F31" t="n">
         <v>7.60750366817</v>
       </c>
       <c r="G31" t="n">
-        <v>1344771.231166242</v>
+        <v>1344771.231165223</v>
       </c>
       <c r="H31" t="n">
-        <v>-1359.841463791503</v>
+        <v>-1359.841463790482</v>
       </c>
       <c r="I31" t="n">
         <v>0.343759550861</v>
@@ -24598,16 +24598,16 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>-602.100000000098</v>
+        <v>-602.10000000004</v>
       </c>
       <c r="F33" t="n">
         <v>0.3</v>
       </c>
       <c r="G33" t="n">
-        <v>-602.100000026725</v>
+        <v>-602.100000003617</v>
       </c>
       <c r="H33" t="n">
-        <v>0.300000000027</v>
+        <v>0.300000000004</v>
       </c>
       <c r="I33" t="n">
         <v>-0</v>
@@ -24707,16 +24707,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>-3030.469062428414</v>
+        <v>-3030.469062428381</v>
       </c>
       <c r="F34" t="n">
         <v>1.561646750041</v>
       </c>
       <c r="G34" t="n">
-        <v>134514.9543057467</v>
+        <v>134514.9543062268</v>
       </c>
       <c r="H34" t="n">
-        <v>-136.759191046701</v>
+        <v>-136.759191047184</v>
       </c>
       <c r="I34" t="n">
         <v>0.034772623614</v>
@@ -24910,16 +24910,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>-1274.355168509692</v>
+        <v>-1274.355168509687</v>
       </c>
       <c r="F35" t="n">
         <v>0.669369303327</v>
       </c>
       <c r="G35" t="n">
-        <v>-49999.65763951032</v>
+        <v>-49999.65763952187</v>
       </c>
       <c r="H35" t="n">
-        <v>49.669361412464</v>
+        <v>49.669361412475</v>
       </c>
       <c r="I35" t="n">
         <v>-0.012318160516</v>
@@ -25361,19 +25361,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-43144.00948208931</v>
+        <v>-43144.00948209008</v>
       </c>
       <c r="F2" t="n">
         <v>25.125521969302</v>
       </c>
       <c r="G2" t="n">
-        <v>-8862691.717209753</v>
+        <v>-8862691.7172214</v>
       </c>
       <c r="H2" t="n">
-        <v>8894.393564830911</v>
+        <v>8894.393564842589</v>
       </c>
       <c r="I2" t="n">
-        <v>-2.229654796024</v>
+        <v>-2.229654796027</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
@@ -25564,19 +25564,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>52770.1097780997</v>
+        <v>52770.10977809747</v>
       </c>
       <c r="F3" t="n">
-        <v>-24.823199387689</v>
+        <v>-24.823199387688</v>
       </c>
       <c r="G3" t="n">
-        <v>-12187008.96641712</v>
+        <v>-12187008.96642895</v>
       </c>
       <c r="H3" t="n">
-        <v>12283.95781860786</v>
+        <v>12283.95781861971</v>
       </c>
       <c r="I3" t="n">
-        <v>-3.094317648013</v>
+        <v>-3.094317648016</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
@@ -25767,19 +25767,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>29310.67200110636</v>
+        <v>29310.67200110473</v>
       </c>
       <c r="F4" t="n">
-        <v>-12.312915345866</v>
+        <v>-12.312915345865</v>
       </c>
       <c r="G4" t="n">
-        <v>-13456578.98674174</v>
+        <v>-13456578.98676419</v>
       </c>
       <c r="H4" t="n">
-        <v>13549.60365267087</v>
+        <v>13549.60365269339</v>
       </c>
       <c r="I4" t="n">
-        <v>-3.40934473657</v>
+        <v>-3.409344736575</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="n">
@@ -25970,19 +25970,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>13976.38011733945</v>
+        <v>13976.38011733894</v>
       </c>
       <c r="F5" t="n">
         <v>-5.956848656384</v>
       </c>
       <c r="G5" t="n">
-        <v>-789666.4298893489</v>
+        <v>-789666.4298857758</v>
       </c>
       <c r="H5" t="n">
-        <v>802.216509986773</v>
+        <v>802.216509983176</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.203167566524</v>
+        <v>-0.203167566523</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="n">
@@ -26173,19 +26173,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>445023.7706812948</v>
+        <v>445023.7706812805</v>
       </c>
       <c r="F6" t="n">
-        <v>-205.014149251661</v>
+        <v>-205.014149251654</v>
       </c>
       <c r="G6" t="n">
-        <v>-23805339.25973984</v>
+        <v>-23805339.25968567</v>
       </c>
       <c r="H6" t="n">
-        <v>24182.06067376355</v>
+        <v>24182.06067370897</v>
       </c>
       <c r="I6" t="n">
-        <v>-6.130692868607</v>
+        <v>-6.130692868593</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="n">
@@ -26376,16 +26376,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>-70254.83315948976</v>
+        <v>-70254.83315948905</v>
       </c>
       <c r="F7" t="n">
-        <v>36.295962318587</v>
+        <v>36.295962318586</v>
       </c>
       <c r="G7" t="n">
-        <v>-238939.9004667603</v>
+        <v>-238939.900467786</v>
       </c>
       <c r="H7" t="n">
-        <v>205.931994273541</v>
+        <v>205.931994274572</v>
       </c>
       <c r="I7" t="n">
         <v>-0.042644983825</v>
@@ -26579,19 +26579,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>-266460.5521738948</v>
+        <v>-266460.552173895</v>
       </c>
       <c r="F8" t="n">
         <v>139.052260569826</v>
       </c>
       <c r="G8" t="n">
-        <v>-51436712.3566368</v>
+        <v>-51436712.35674535</v>
       </c>
       <c r="H8" t="n">
-        <v>51597.77714244202</v>
+        <v>51597.77714255098</v>
       </c>
       <c r="I8" t="n">
-        <v>-12.936263982064</v>
+        <v>-12.936263982092</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="n">
@@ -26782,19 +26782,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>-585486.3603356364</v>
+        <v>-585486.360335637</v>
       </c>
       <c r="F9" t="n">
-        <v>306.895718345155</v>
+        <v>306.895718345156</v>
       </c>
       <c r="G9" t="n">
-        <v>-99015693.58555229</v>
+        <v>-99015693.5857874</v>
       </c>
       <c r="H9" t="n">
-        <v>99292.00474269304</v>
+        <v>99292.00474292907</v>
       </c>
       <c r="I9" t="n">
-        <v>-24.883972612455</v>
+        <v>-24.883972612515</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="n">
@@ -26985,19 +26985,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>292416.4897786006</v>
+        <v>292416.4897785889</v>
       </c>
       <c r="F10" t="n">
-        <v>-135.685327609534</v>
+        <v>-135.685327609528</v>
       </c>
       <c r="G10" t="n">
-        <v>-37183776.6084187</v>
+        <v>-37183776.60841657</v>
       </c>
       <c r="H10" t="n">
-        <v>37551.78038253294</v>
+        <v>37551.78038253066</v>
       </c>
       <c r="I10" t="n">
-        <v>-9.474292384052999</v>
+        <v>-9.474292384051999</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
@@ -27188,19 +27188,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-53235.27769500893</v>
+        <v>-53235.27769500886</v>
       </c>
       <c r="F11" t="n">
         <v>27.956416860267</v>
       </c>
       <c r="G11" t="n">
-        <v>-6360653.884830249</v>
+        <v>-6360653.884843647</v>
       </c>
       <c r="H11" t="n">
-        <v>6370.933192891413</v>
+        <v>6370.933192904856</v>
       </c>
       <c r="I11" t="n">
-        <v>-1.594567727731</v>
+        <v>-1.594567727735</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
@@ -27391,19 +27391,19 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>-127184.6131536697</v>
+        <v>-127184.6131536785</v>
       </c>
       <c r="F12" t="n">
-        <v>80.695295548481</v>
+        <v>80.69529554848501</v>
       </c>
       <c r="G12" t="n">
-        <v>-96890945.62410919</v>
+        <v>-96890945.62427634</v>
       </c>
       <c r="H12" t="n">
-        <v>97389.96348960708</v>
+        <v>97389.96348977473</v>
       </c>
       <c r="I12" t="n">
-        <v>-24.462681190596</v>
+        <v>-24.462681190638</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
@@ -27594,19 +27594,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>-18900.08154944571</v>
+        <v>-18900.08154944541</v>
       </c>
       <c r="F13" t="n">
-        <v>9.714338588925999</v>
+        <v>9.714338588924999</v>
       </c>
       <c r="G13" t="n">
-        <v>2107662.905493887</v>
+        <v>2107662.905499844</v>
       </c>
       <c r="H13" t="n">
-        <v>-2128.837179828481</v>
+        <v>-2128.837179834463</v>
       </c>
       <c r="I13" t="n">
-        <v>0.537612757506</v>
+        <v>0.537612757508</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
@@ -27797,16 +27797,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-34153.66537153639</v>
+        <v>-34153.66537153594</v>
       </c>
       <c r="F14" t="n">
-        <v>17.460478439217</v>
+        <v>17.460478439216</v>
       </c>
       <c r="G14" t="n">
-        <v>733699.2019701884</v>
+        <v>733699.2019706956</v>
       </c>
       <c r="H14" t="n">
-        <v>-754.721171189648</v>
+        <v>-754.721171190155</v>
       </c>
       <c r="I14" t="n">
         <v>0.194119572233</v>
@@ -28000,19 +28000,19 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>14963.64446082321</v>
+        <v>14963.64446082186</v>
       </c>
       <c r="F15" t="n">
-        <v>-5.973258816015</v>
+        <v>-5.973258816014</v>
       </c>
       <c r="G15" t="n">
-        <v>-10093270.3795812</v>
+        <v>-10093270.37959651</v>
       </c>
       <c r="H15" t="n">
-        <v>10159.24608918399</v>
+        <v>10159.24608919934</v>
       </c>
       <c r="I15" t="n">
-        <v>-2.555445383133</v>
+        <v>-2.555445383137</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="n">
@@ -28203,19 +28203,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>28876.67374051643</v>
+        <v>28876.67374051493</v>
       </c>
       <c r="F16" t="n">
-        <v>-12.971176456798</v>
+        <v>-12.971176456797</v>
       </c>
       <c r="G16" t="n">
-        <v>-6268488.901092512</v>
+        <v>-6268488.901094642</v>
       </c>
       <c r="H16" t="n">
-        <v>6319.895893148726</v>
+        <v>6319.895893150841</v>
       </c>
       <c r="I16" t="n">
-        <v>-1.592026237801</v>
+        <v>-1.592026237802</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="n">
@@ -28406,19 +28406,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>10529.59348401601</v>
+        <v>10529.59348401467</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.970202204175</v>
+        <v>-2.970202204174</v>
       </c>
       <c r="G17" t="n">
-        <v>-4347979.07090119</v>
+        <v>-4347979.070895717</v>
       </c>
       <c r="H17" t="n">
-        <v>4380.109621458003</v>
+        <v>4380.109621452481</v>
       </c>
       <c r="I17" t="n">
-        <v>-1.101867132999</v>
+        <v>-1.101867132997</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="n">
@@ -28609,19 +28609,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>-125796.3517714768</v>
+        <v>-125796.3517714791</v>
       </c>
       <c r="F18" t="n">
-        <v>70.450707762443</v>
+        <v>70.450707762444</v>
       </c>
       <c r="G18" t="n">
-        <v>-20344335.75010558</v>
+        <v>-20344335.75011608</v>
       </c>
       <c r="H18" t="n">
-        <v>20402.97243128123</v>
+        <v>20402.9724312917</v>
       </c>
       <c r="I18" t="n">
-        <v>-5.111414420787</v>
+        <v>-5.111414420789</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="n">
@@ -28812,19 +28812,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>-224745.5156444322</v>
+        <v>-224745.5156444305</v>
       </c>
       <c r="F19" t="n">
-        <v>115.84969150978</v>
+        <v>115.849691509779</v>
       </c>
       <c r="G19" t="n">
-        <v>-23104790.5859363</v>
+        <v>-23104790.58599739</v>
       </c>
       <c r="H19" t="n">
-        <v>23124.88136593079</v>
+        <v>23124.88136599212</v>
       </c>
       <c r="I19" t="n">
-        <v>-5.784265125016</v>
+        <v>-5.784265125031</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="n">
@@ -29015,19 +29015,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>64724.14207942939</v>
+        <v>64724.14207942515</v>
       </c>
       <c r="F20" t="n">
-        <v>-28.088929983943</v>
+        <v>-28.08892998394</v>
       </c>
       <c r="G20" t="n">
-        <v>-26533960.74065312</v>
+        <v>-26533960.74068719</v>
       </c>
       <c r="H20" t="n">
-        <v>26720.54644571241</v>
+        <v>26720.54644574658</v>
       </c>
       <c r="I20" t="n">
-        <v>-6.724368106173</v>
+        <v>-6.724368106182</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="n">
@@ -29218,19 +29218,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>-16173.16683726734</v>
+        <v>-16173.16683726744</v>
       </c>
       <c r="F21" t="n">
         <v>8.627676788531</v>
       </c>
       <c r="G21" t="n">
-        <v>-3480737.569798784</v>
+        <v>-3480737.56980609</v>
       </c>
       <c r="H21" t="n">
-        <v>3492.723614576651</v>
+        <v>3492.723614583984</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.875870610738</v>
+        <v>-0.875870610739</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="n">
@@ -29421,19 +29421,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>-27595.02252245341</v>
+        <v>-27595.02252245368</v>
       </c>
       <c r="F22" t="n">
         <v>15.479082051239</v>
       </c>
       <c r="G22" t="n">
-        <v>-4205232.423456461</v>
+        <v>-4205232.423460524</v>
       </c>
       <c r="H22" t="n">
-        <v>4216.667977747338</v>
+        <v>4216.667977751404</v>
       </c>
       <c r="I22" t="n">
-        <v>-1.056141377735</v>
+        <v>-1.056141377736</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="n">
@@ -29624,19 +29624,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>20282.34765145896</v>
+        <v>20282.3476514584</v>
       </c>
       <c r="F23" t="n">
         <v>-9.455294156878001</v>
       </c>
       <c r="G23" t="n">
-        <v>-396592.2864397437</v>
+        <v>-396592.2864360196</v>
       </c>
       <c r="H23" t="n">
-        <v>409.769477061844</v>
+        <v>409.769477058097</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.105389364403</v>
+        <v>-0.105389364402</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
@@ -29827,19 +29827,19 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>37909.06458324947</v>
+        <v>37909.0645832487</v>
       </c>
       <c r="F24" t="n">
         <v>-17.674062057433</v>
       </c>
       <c r="G24" t="n">
-        <v>4191267.043330694</v>
+        <v>4191267.043351458</v>
       </c>
       <c r="H24" t="n">
-        <v>-4194.446659952935</v>
+        <v>-4194.4466599738</v>
       </c>
       <c r="I24" t="n">
-        <v>1.050003338471</v>
+        <v>1.050003338476</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="n">
@@ -30030,19 +30030,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>307485.9088591004</v>
+        <v>307485.9088590942</v>
       </c>
       <c r="F25" t="n">
-        <v>-147.88544150507</v>
+        <v>-147.885441505067</v>
       </c>
       <c r="G25" t="n">
-        <v>-5958036.959310913</v>
+        <v>-5958036.959288358</v>
       </c>
       <c r="H25" t="n">
-        <v>6152.959407691456</v>
+        <v>6152.959407668752</v>
       </c>
       <c r="I25" t="n">
-        <v>-1.583976137503</v>
+        <v>-1.583976137498</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="n">
@@ -30233,19 +30233,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>15048.38189410883</v>
+        <v>15048.38189410807</v>
       </c>
       <c r="F26" t="n">
         <v>-6.654628944394</v>
       </c>
       <c r="G26" t="n">
-        <v>-152274.6044659128</v>
+        <v>-152274.6044559464</v>
       </c>
       <c r="H26" t="n">
-        <v>161.611643311132</v>
+        <v>161.611643301109</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.042300638467</v>
+        <v>-0.042300638464</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
@@ -30436,19 +30436,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>-8126.429279203133</v>
+        <v>-8126.429279203677</v>
       </c>
       <c r="F27" t="n">
-        <v>6.185400318728</v>
+        <v>6.185400318729</v>
       </c>
       <c r="G27" t="n">
-        <v>-772794.6229193058</v>
+        <v>-772794.6229125467</v>
       </c>
       <c r="H27" t="n">
-        <v>775.164422599254</v>
+        <v>775.164422592454</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.193314460312</v>
+        <v>-0.19331446031</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
@@ -30842,16 +30842,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>-18750.830117611</v>
+        <v>-18750.83011761087</v>
       </c>
       <c r="F29" t="n">
         <v>9.731946549265</v>
       </c>
       <c r="G29" t="n">
-        <v>-764772.7178980189</v>
+        <v>-764772.7178993672</v>
       </c>
       <c r="H29" t="n">
-        <v>759.95954413554</v>
+        <v>759.959544136892</v>
       </c>
       <c r="I29" t="n">
         <v>-0.188600519568</v>
@@ -31045,19 +31045,19 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>-42533.85021753835</v>
+        <v>-42533.85021753787</v>
       </c>
       <c r="F30" t="n">
         <v>21.758385825503</v>
       </c>
       <c r="G30" t="n">
-        <v>2972111.343085022</v>
+        <v>2972111.343094975</v>
       </c>
       <c r="H30" t="n">
-        <v>-3009.881915875824</v>
+        <v>-3009.881915885822</v>
       </c>
       <c r="I30" t="n">
-        <v>0.762127303611</v>
+        <v>0.762127303613</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
@@ -31248,19 +31248,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>-17214.74055271246</v>
+        <v>-17214.74055271294</v>
       </c>
       <c r="F31" t="n">
         <v>9.723831686843001</v>
       </c>
       <c r="G31" t="n">
-        <v>-7605277.606591742</v>
+        <v>-7605277.606606525</v>
       </c>
       <c r="H31" t="n">
-        <v>7640.564518224118</v>
+        <v>7640.564518238954</v>
       </c>
       <c r="I31" t="n">
-        <v>-1.918325216039</v>
+        <v>-1.918325216043</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
@@ -31451,16 +31451,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>-17451.27576566072</v>
+        <v>-17451.27576566063</v>
       </c>
       <c r="F32" t="n">
         <v>9.116129787002</v>
       </c>
       <c r="G32" t="n">
-        <v>-653226.6146281657</v>
+        <v>-653226.6146289988</v>
       </c>
       <c r="H32" t="n">
-        <v>648.47566184917</v>
+        <v>648.4756618500051</v>
       </c>
       <c r="I32" t="n">
         <v>-0.160729277789</v>
@@ -31654,16 +31654,16 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>3848.484957424315</v>
+        <v>3848.484957424349</v>
       </c>
       <c r="F33" t="n">
         <v>-1.85704155146</v>
       </c>
       <c r="G33" t="n">
-        <v>731726.0535803954</v>
+        <v>731726.0535815441</v>
       </c>
       <c r="H33" t="n">
-        <v>-733.838031103455</v>
+        <v>-733.838031104607</v>
       </c>
       <c r="I33" t="n">
         <v>0.184013485224</v>
@@ -31857,16 +31857,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>23525.68796335571</v>
+        <v>23525.68796335521</v>
       </c>
       <c r="F34" t="n">
         <v>-11.207656266095</v>
       </c>
       <c r="G34" t="n">
-        <v>-1654534.777049759</v>
+        <v>-1654534.777051013</v>
       </c>
       <c r="H34" t="n">
-        <v>1676.312900291439</v>
+        <v>1676.312900292692</v>
       </c>
       <c r="I34" t="n">
         <v>-0.42422760076</v>
@@ -32060,19 +32060,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>-9714.716591927863</v>
+        <v>-9714.716591927776</v>
       </c>
       <c r="F35" t="n">
         <v>5.096901688035</v>
       </c>
       <c r="G35" t="n">
-        <v>-433789.6320721679</v>
+        <v>-433789.6320731792</v>
       </c>
       <c r="H35" t="n">
-        <v>431.562545992282</v>
+        <v>431.562545993298</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.107209655246</v>
+        <v>-0.107209655247</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
@@ -34585,19 +34585,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>-4155.251976771593</v>
+        <v>-4155.251976771763</v>
       </c>
       <c r="F6" t="n">
         <v>2.384423251617</v>
       </c>
       <c r="G6" t="n">
-        <v>-2204563.149681546</v>
+        <v>-2204563.149685397</v>
       </c>
       <c r="H6" t="n">
-        <v>2215.197154144083</v>
+        <v>2215.197154147947</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.556281363275</v>
+        <v>-0.556281363276</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="n">
@@ -34875,16 +34875,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>-3189.019289293235</v>
+        <v>-3189.019289293261</v>
       </c>
       <c r="F8" t="n">
         <v>1.672684480725</v>
       </c>
       <c r="G8" t="n">
-        <v>-200586.0923000809</v>
+        <v>-200586.0922992537</v>
       </c>
       <c r="H8" t="n">
-        <v>199.928747288016</v>
+        <v>199.928747287184</v>
       </c>
       <c r="I8" t="n">
         <v>-0.049776663907</v>
@@ -35068,19 +35068,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>-10893.23397214517</v>
+        <v>-10893.23397214511</v>
       </c>
       <c r="F9" t="n">
         <v>5.617602632543</v>
       </c>
       <c r="G9" t="n">
-        <v>-1031411.780848736</v>
+        <v>-1031411.780851043</v>
       </c>
       <c r="H9" t="n">
-        <v>1031.889338430223</v>
+        <v>1031.889338432538</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.257995551232</v>
+        <v>-0.257995551233</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="n">
@@ -35271,16 +35271,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>-2180.157919860154</v>
+        <v>-2180.157919860204</v>
       </c>
       <c r="F10" t="n">
         <v>1.287929263991</v>
       </c>
       <c r="G10" t="n">
-        <v>-241998.3654575817</v>
+        <v>-241998.365457111</v>
       </c>
       <c r="H10" t="n">
-        <v>242.458115615723</v>
+        <v>242.458115615248</v>
       </c>
       <c r="I10" t="n">
         <v>-0.060628031542</v>
@@ -35474,16 +35474,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>2540.551654002641</v>
+        <v>2540.551654002607</v>
       </c>
       <c r="F11" t="n">
         <v>-1.2625553253</v>
       </c>
       <c r="G11" t="n">
-        <v>222464.5526685333</v>
+        <v>222464.5526684602</v>
       </c>
       <c r="H11" t="n">
-        <v>-220.690129328862</v>
+        <v>-220.690129328789</v>
       </c>
       <c r="I11" t="n">
         <v>0.054732155101</v>
@@ -35615,19 +35615,19 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>2363.778877123746</v>
+        <v>2363.778877123642</v>
       </c>
       <c r="F12" t="n">
         <v>-1.10550408172</v>
       </c>
       <c r="G12" t="n">
-        <v>-968643.5668726595</v>
+        <v>-968643.5668748488</v>
       </c>
       <c r="H12" t="n">
-        <v>975.37591043532</v>
+        <v>975.375910437518</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.245478709019</v>
+        <v>-0.24547870902</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
@@ -35992,16 +35992,16 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>2602.955362958475</v>
+        <v>2602.955362958423</v>
       </c>
       <c r="F15" t="n">
         <v>-1.285757027405</v>
       </c>
       <c r="G15" t="n">
-        <v>-190704.2212484385</v>
+        <v>-190704.2212487339</v>
       </c>
       <c r="H15" t="n">
-        <v>193.111191749575</v>
+        <v>193.111191749871</v>
       </c>
       <c r="I15" t="n">
         <v>-0.048869657234</v>
@@ -36195,19 +36195,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>-728.341652910872</v>
+        <v>-728.341652910854</v>
       </c>
       <c r="F16" t="n">
         <v>0.462703858001</v>
       </c>
       <c r="G16" t="n">
-        <v>-1508805.99666893</v>
+        <v>-1508805.996673878</v>
       </c>
       <c r="H16" t="n">
-        <v>1515.037957821086</v>
+        <v>1515.037957826036</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.380251726282</v>
+        <v>-0.380251726283</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -36378,16 +36378,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>4260.921943382406</v>
+        <v>4260.921943382333</v>
       </c>
       <c r="F17" t="n">
         <v>-2.117736662911</v>
       </c>
       <c r="G17" t="n">
-        <v>-132462.7833161153</v>
+        <v>-132462.7833161117</v>
       </c>
       <c r="H17" t="n">
-        <v>135.376750576744</v>
+        <v>135.37675057674</v>
       </c>
       <c r="I17" t="n">
         <v>-0.034564886462</v>
@@ -36581,16 +36581,16 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>2614.556106371372</v>
+        <v>2614.5561063713</v>
       </c>
       <c r="F18" t="n">
         <v>-1.287681033848</v>
       </c>
       <c r="G18" t="n">
-        <v>-195974.1683913369</v>
+        <v>-195974.1683912907</v>
       </c>
       <c r="H18" t="n">
-        <v>198.420590436456</v>
+        <v>198.420590436408</v>
       </c>
       <c r="I18" t="n">
         <v>-0.050204876337</v>
@@ -36871,16 +36871,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>-5762.520995468123</v>
+        <v>-5762.520995468126</v>
       </c>
       <c r="F20" t="n">
         <v>2.990532112325</v>
       </c>
       <c r="G20" t="n">
-        <v>-224292.9154558716</v>
+        <v>-224292.9154561973</v>
       </c>
       <c r="H20" t="n">
-        <v>222.528018382501</v>
+        <v>222.528018382829</v>
       </c>
       <c r="I20" t="n">
         <v>-0.055133818478</v>
@@ -37066,16 +37066,16 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>1381.863349924425</v>
+        <v>1381.863349924505</v>
       </c>
       <c r="F21" t="n">
         <v>-0.647810114068</v>
       </c>
       <c r="G21" t="n">
-        <v>-232230.7107107288</v>
+        <v>-232230.7107116173</v>
       </c>
       <c r="H21" t="n">
-        <v>232.437438182546</v>
+        <v>232.437438183432</v>
       </c>
       <c r="I21" t="n">
         <v>-0.058138809671</v>
@@ -37207,16 +37207,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>-5191.698675581706</v>
+        <v>-5191.698675581628</v>
       </c>
       <c r="F22" t="n">
         <v>2.654171803712</v>
       </c>
       <c r="G22" t="n">
-        <v>375726.3973681016</v>
+        <v>375726.3973689449</v>
       </c>
       <c r="H22" t="n">
-        <v>-380.411355834143</v>
+        <v>-380.411355834989</v>
       </c>
       <c r="I22" t="n">
         <v>0.096299253418</v>
@@ -37497,16 +37497,16 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>-2856.997313902646</v>
+        <v>-2856.997313902631</v>
       </c>
       <c r="F24" t="n">
         <v>1.479004281936</v>
       </c>
       <c r="G24" t="n">
-        <v>-109159.0675606492</v>
+        <v>-109159.0675607244</v>
       </c>
       <c r="H24" t="n">
-        <v>108.38035407603</v>
+        <v>108.380354076105</v>
       </c>
       <c r="I24" t="n">
         <v>-0.026874044861</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>-2620.135099766309</v>
+        <v>-2620.135099766381</v>
       </c>
       <c r="F25" t="n">
         <v>1.425326639094</v>
       </c>
       <c r="G25" t="n">
-        <v>-1553619.852071808</v>
+        <v>-1553619.852075731</v>
       </c>
       <c r="H25" t="n">
-        <v>1561.168828244551</v>
+        <v>1561.16882824849</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.392105590012</v>
+        <v>-0.392105590013</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="n">
@@ -37903,16 +37903,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>-40412.02793621162</v>
+        <v>-40412.02793621123</v>
       </c>
       <c r="F26" t="n">
         <v>20.744336378876</v>
       </c>
       <c r="G26" t="n">
-        <v>-351580.3739701882</v>
+        <v>-351580.3739707245</v>
       </c>
       <c r="H26" t="n">
-        <v>333.666898724232</v>
+        <v>333.66689872477</v>
       </c>
       <c r="I26" t="n">
         <v>-0.07866593822</v>
@@ -38106,16 +38106,16 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>2996.403887723808</v>
+        <v>2996.403887723738</v>
       </c>
       <c r="F27" t="n">
         <v>-1.481425970966</v>
       </c>
       <c r="G27" t="n">
-        <v>-207348.8293635631</v>
+        <v>-207348.8293636575</v>
       </c>
       <c r="H27" t="n">
-        <v>210.04963175088</v>
+        <v>210.049631750974</v>
       </c>
       <c r="I27" t="n">
         <v>-0.05317701924</v>
@@ -38309,19 +38309,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>-393.255451339414</v>
+        <v>-393.255451339315</v>
       </c>
       <c r="F28" t="n">
         <v>0.233133458695</v>
       </c>
       <c r="G28" t="n">
-        <v>-1485284.902835466</v>
+        <v>-1485284.902838966</v>
       </c>
       <c r="H28" t="n">
-        <v>1481.772985137383</v>
+        <v>1481.772985140875</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.369542749212</v>
+        <v>-0.369542749213</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -38711,19 +38711,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>-8716.680119771474</v>
+        <v>-8716.680119771265</v>
       </c>
       <c r="F32" t="n">
         <v>4.391560330618</v>
       </c>
       <c r="G32" t="n">
-        <v>-1077864.270303576</v>
+        <v>-1077864.270306431</v>
       </c>
       <c r="H32" t="n">
-        <v>1071.125799811312</v>
+        <v>1071.125799814161</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.266077151478</v>
+        <v>-0.266077151479</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -38852,19 +38852,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>-33521.36788581257</v>
+        <v>-33521.3678858121</v>
       </c>
       <c r="F33" t="n">
         <v>16.954410176211</v>
       </c>
       <c r="G33" t="n">
-        <v>2661780.426286449</v>
+        <v>2661780.426303817</v>
       </c>
       <c r="H33" t="n">
-        <v>-2688.001453669173</v>
+        <v>-2688.00145368657</v>
       </c>
       <c r="I33" t="n">
-        <v>0.6786242450660001</v>
+        <v>0.67862424507</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -41187,16 +41187,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>285.583629936203</v>
+        <v>285.583629936198</v>
       </c>
       <c r="F2" t="n">
         <v>-0.142263700631</v>
       </c>
       <c r="G2" t="n">
-        <v>35647.16884718722</v>
+        <v>35647.1688471956</v>
       </c>
       <c r="H2" t="n">
-        <v>-35.558172488367</v>
+        <v>-35.558172488376</v>
       </c>
       <c r="I2" t="n">
         <v>0.008867235986</v>
@@ -41358,16 +41358,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>-13514.0970230987</v>
+        <v>-13514.09702309891</v>
       </c>
       <c r="F3" t="n">
         <v>6.839990485084</v>
       </c>
       <c r="G3" t="n">
-        <v>695159.0379658556</v>
+        <v>695159.0379657868</v>
       </c>
       <c r="H3" t="n">
-        <v>-702.9218302843</v>
+        <v>-702.9218302842301</v>
       </c>
       <c r="I3" t="n">
         <v>0.177706171441</v>
@@ -41535,10 +41535,10 @@
         <v>-0.003137689184</v>
       </c>
       <c r="G4" t="n">
-        <v>1448.049540248094</v>
+        <v>1448.049540248626</v>
       </c>
       <c r="H4" t="n">
-        <v>-1.441625340321</v>
+        <v>-1.441625340322</v>
       </c>
       <c r="I4" t="n">
         <v>0.000358804173</v>
@@ -41757,16 +41757,16 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>-8317.404305611817</v>
+        <v>-8317.404305611799</v>
       </c>
       <c r="F6" t="n">
         <v>4.290282860833</v>
       </c>
       <c r="G6" t="n">
-        <v>278490.4131541314</v>
+        <v>278490.4131514727</v>
       </c>
       <c r="H6" t="n">
-        <v>-283.177774281362</v>
+        <v>-283.177774278702</v>
       </c>
       <c r="I6" t="n">
         <v>0.072029268369</v>
@@ -42108,19 +42108,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>-11333.87760516745</v>
+        <v>-11333.87760516759</v>
       </c>
       <c r="F9" t="n">
         <v>5.770835884394</v>
       </c>
       <c r="G9" t="n">
-        <v>-336768.9850688048</v>
+        <v>-336768.9850684723</v>
       </c>
       <c r="H9" t="n">
-        <v>331.705886913627</v>
+        <v>331.705886913294</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.08160578431</v>
+        <v>-0.08160578430900001</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -42285,10 +42285,10 @@
         <v>-0.053308174696</v>
       </c>
       <c r="G10" t="n">
-        <v>16439.01768028122</v>
+        <v>16439.01768065972</v>
       </c>
       <c r="H10" t="n">
-        <v>-16.414697645353</v>
+        <v>-16.414697645732</v>
       </c>
       <c r="I10" t="n">
         <v>0.004097508561</v>
@@ -43064,16 +43064,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>5.235147216452</v>
+        <v>5.235147216451</v>
       </c>
       <c r="F17" t="n">
         <v>-0.00261214515</v>
       </c>
       <c r="G17" t="n">
-        <v>1153.2822516654</v>
+        <v>1153.282251666935</v>
       </c>
       <c r="H17" t="n">
-        <v>-1.15242291538</v>
+        <v>-1.152422915381</v>
       </c>
       <c r="I17" t="n">
         <v>0.000287883152</v>
@@ -43235,19 +43235,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>-16792.59902037154</v>
+        <v>-16792.5990203714</v>
       </c>
       <c r="F18" t="n">
         <v>8.606555220679001</v>
       </c>
       <c r="G18" t="n">
-        <v>-908602.8104779286</v>
+        <v>-908602.8104805528</v>
       </c>
       <c r="H18" t="n">
-        <v>905.444360389271</v>
+        <v>905.444360391907</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.225457016733</v>
+        <v>-0.225457016734</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="n">
@@ -43438,16 +43438,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>161.150677242488</v>
+        <v>161.15067724249</v>
       </c>
       <c r="F19" t="n">
         <v>-0.08028659721500001</v>
       </c>
       <c r="G19" t="n">
-        <v>14951.2810300581</v>
+        <v>14951.28103005145</v>
       </c>
       <c r="H19" t="n">
-        <v>-14.893138009728</v>
+        <v>-14.893138009722</v>
       </c>
       <c r="I19" t="n">
         <v>0.003708758397</v>
@@ -43609,16 +43609,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>2372.243054675261</v>
+        <v>2372.243054675299</v>
       </c>
       <c r="F20" t="n">
         <v>-1.178553621961</v>
       </c>
       <c r="G20" t="n">
-        <v>-7259.033858903708</v>
+        <v>-7259.033858914957</v>
       </c>
       <c r="H20" t="n">
-        <v>8.467519159707001</v>
+        <v>8.467519159718</v>
       </c>
       <c r="I20" t="n">
         <v>-0.002415129433</v>
@@ -43867,16 +43867,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>444.015824687965</v>
+        <v>444.015824687972</v>
       </c>
       <c r="F22" t="n">
         <v>-0.220763777294</v>
       </c>
       <c r="G22" t="n">
-        <v>8639.768963900355</v>
+        <v>8639.768963855735</v>
       </c>
       <c r="H22" t="n">
-        <v>-8.429107488184</v>
+        <v>-8.42910748814</v>
       </c>
       <c r="I22" t="n">
         <v>0.002055158917</v>
@@ -44038,16 +44038,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>-6455.26815173057</v>
+        <v>-6455.268151730649</v>
       </c>
       <c r="F23" t="n">
         <v>3.293455847436</v>
       </c>
       <c r="G23" t="n">
-        <v>-361340.2202824829</v>
+        <v>-361340.2202821251</v>
       </c>
       <c r="H23" t="n">
-        <v>358.723593313991</v>
+        <v>358.723593313632</v>
       </c>
       <c r="I23" t="n">
         <v>-0.088990598107</v>
@@ -44209,16 +44209,16 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>-6512.96075647606</v>
+        <v>-6512.960756476143</v>
       </c>
       <c r="F24" t="n">
         <v>3.319554845031</v>
       </c>
       <c r="G24" t="n">
-        <v>-284946.0058774105</v>
+        <v>-284946.0058764491</v>
       </c>
       <c r="H24" t="n">
-        <v>282.180337496935</v>
+        <v>282.180337495972</v>
       </c>
       <c r="I24" t="n">
         <v>-0.069819593841</v>
@@ -44467,16 +44467,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>936.533721150872</v>
+        <v>936.533721150853</v>
       </c>
       <c r="F26" t="n">
         <v>-0.460443382031</v>
       </c>
       <c r="G26" t="n">
-        <v>-134457.9095595926</v>
+        <v>-134457.9095599145</v>
       </c>
       <c r="H26" t="n">
-        <v>135.697288144128</v>
+        <v>135.697288144451</v>
       </c>
       <c r="I26" t="n">
         <v>-0.034228838011</v>
@@ -44931,16 +44931,16 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>246.83041569338</v>
+        <v>246.830415693372</v>
       </c>
       <c r="F30" t="n">
         <v>-0.121825328336</v>
       </c>
       <c r="G30" t="n">
-        <v>-41027.10503903502</v>
+        <v>-41027.10503909366</v>
       </c>
       <c r="H30" t="n">
-        <v>41.384792568975</v>
+        <v>41.384792569034</v>
       </c>
       <c r="I30" t="n">
         <v>-0.010434393144</v>
@@ -45134,16 +45134,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>4411.917730504465</v>
+        <v>4411.917730504548</v>
       </c>
       <c r="F31" t="n">
         <v>-2.174521947332</v>
       </c>
       <c r="G31" t="n">
-        <v>200818.3145061038</v>
+        <v>200818.3145064508</v>
       </c>
       <c r="H31" t="n">
-        <v>-198.882644357499</v>
+        <v>-198.882644357846</v>
       </c>
       <c r="I31" t="n">
         <v>0.049250672975</v>
@@ -45901,19 +45901,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-4241.778144482039</v>
+        <v>-4241.778144482081</v>
       </c>
       <c r="F2" t="n">
         <v>2.177992272892</v>
       </c>
       <c r="G2" t="n">
-        <v>-400689.0023799571</v>
+        <v>-400689.0023796152</v>
       </c>
       <c r="H2" t="n">
-        <v>399.234251103311</v>
+        <v>399.234251102969</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.099412712179</v>
+        <v>-0.099412712178</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -46072,16 +46072,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>-2704.603111658917</v>
+        <v>-2704.603111658963</v>
       </c>
       <c r="F3" t="n">
         <v>1.362817173448</v>
       </c>
       <c r="G3" t="n">
-        <v>268872.331968692</v>
+        <v>268872.3319685079</v>
       </c>
       <c r="H3" t="n">
-        <v>-270.63132286772</v>
+        <v>-270.631322867535</v>
       </c>
       <c r="I3" t="n">
         <v>0.06810036249699999</v>
@@ -46471,19 +46471,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>-9198.539053005557</v>
+        <v>-9198.539053005532</v>
       </c>
       <c r="F6" t="n">
         <v>4.679876786346</v>
       </c>
       <c r="G6" t="n">
-        <v>-419590.2957511683</v>
+        <v>-419590.2957482661</v>
       </c>
       <c r="H6" t="n">
-        <v>416.016366879586</v>
+        <v>416.016366876683</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.103066291015</v>
+        <v>-0.103066291014</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -46822,16 +46822,16 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>876.375713766718</v>
+        <v>876.375713766744</v>
       </c>
       <c r="F9" t="n">
         <v>-0.42821927629</v>
       </c>
       <c r="G9" t="n">
-        <v>-134732.13423644</v>
+        <v>-134732.1342366188</v>
       </c>
       <c r="H9" t="n">
-        <v>135.388616697861</v>
+        <v>135.38861669804</v>
       </c>
       <c r="I9" t="n">
         <v>-0.034005055262</v>
@@ -46999,10 +46999,10 @@
         <v>-0.131777136917</v>
       </c>
       <c r="G10" t="n">
-        <v>-28815.78415373249</v>
+        <v>-28815.78415366173</v>
       </c>
       <c r="H10" t="n">
-        <v>29.001689951579</v>
+        <v>29.001689951508</v>
       </c>
       <c r="I10" t="n">
         <v>-0.007296118158</v>
@@ -47520,10 +47520,10 @@
         <v>-0.015933749508</v>
       </c>
       <c r="G15" t="n">
-        <v>4238.620211810881</v>
+        <v>4238.620211807727</v>
       </c>
       <c r="H15" t="n">
-        <v>-4.232280987054</v>
+        <v>-4.232280987051</v>
       </c>
       <c r="I15" t="n">
         <v>0.00105646662</v>
@@ -47778,16 +47778,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>-3025.200232114079</v>
+        <v>-3025.200232114106</v>
       </c>
       <c r="F17" t="n">
         <v>1.540630519494</v>
       </c>
       <c r="G17" t="n">
-        <v>-188320.5597262296</v>
+        <v>-188320.5597265334</v>
       </c>
       <c r="H17" t="n">
-        <v>187.120646526042</v>
+        <v>187.120646526346</v>
       </c>
       <c r="I17" t="n">
         <v>-0.046464480302</v>
@@ -47949,19 +47949,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>-2655.884484048</v>
+        <v>-2655.884484047959</v>
       </c>
       <c r="F18" t="n">
         <v>1.347541251884</v>
       </c>
       <c r="G18" t="n">
-        <v>105386.3293396251</v>
+        <v>105386.3293397615</v>
       </c>
       <c r="H18" t="n">
-        <v>-107.303762205175</v>
+        <v>-107.303762205312</v>
       </c>
       <c r="I18" t="n">
-        <v>0.027313967587</v>
+        <v>0.027313967588</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="n">
@@ -48152,16 +48152,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>80.238144173338</v>
+        <v>80.238144173341</v>
       </c>
       <c r="F19" t="n">
         <v>-0.039874086216</v>
       </c>
       <c r="G19" t="n">
-        <v>-4556.257980191753</v>
+        <v>-4556.257980190023</v>
       </c>
       <c r="H19" t="n">
-        <v>4.603744768153</v>
+        <v>4.603744768151</v>
       </c>
       <c r="I19" t="n">
         <v>-0.001162643163</v>
@@ -48323,16 +48323,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>307.452964766038</v>
+        <v>307.452964766043</v>
       </c>
       <c r="F20" t="n">
         <v>-0.152862081219</v>
       </c>
       <c r="G20" t="n">
-        <v>4091.29349756801</v>
+        <v>4091.293497579318</v>
       </c>
       <c r="H20" t="n">
-        <v>-3.942515467902</v>
+        <v>-3.942515467914</v>
       </c>
       <c r="I20" t="n">
         <v>0.000948832094</v>
@@ -48581,16 +48581,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>-1456.428161204059</v>
+        <v>-1456.428161204077</v>
       </c>
       <c r="F22" t="n">
         <v>0.735911088754</v>
       </c>
       <c r="G22" t="n">
-        <v>158368.9283477229</v>
+        <v>158368.9283477304</v>
       </c>
       <c r="H22" t="n">
-        <v>-159.334974119361</v>
+        <v>-159.334974119369</v>
       </c>
       <c r="I22" t="n">
         <v>0.040077647652</v>
@@ -48752,16 +48752,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>621.05521216153</v>
+        <v>621.055212161544</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.307117460736</v>
+        <v>-0.307117460737</v>
       </c>
       <c r="G23" t="n">
-        <v>-12478.8714685172</v>
+        <v>-12478.87146849195</v>
       </c>
       <c r="H23" t="n">
-        <v>12.812933736024</v>
+        <v>12.812933735999</v>
       </c>
       <c r="I23" t="n">
         <v>-0.003284924603</v>
@@ -48923,16 +48923,16 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>-2133.034455885141</v>
+        <v>-2133.034455885174</v>
       </c>
       <c r="F24" t="n">
         <v>1.083624481764</v>
       </c>
       <c r="G24" t="n">
-        <v>122789.335880155</v>
+        <v>122789.3358799625</v>
       </c>
       <c r="H24" t="n">
-        <v>-124.030655497139</v>
+        <v>-124.030655496946</v>
       </c>
       <c r="I24" t="n">
         <v>0.031325409506</v>
@@ -49846,16 +49846,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>2683.826637368175</v>
+        <v>2683.826637368196</v>
       </c>
       <c r="F31" t="n">
         <v>-1.331700729436</v>
       </c>
       <c r="G31" t="n">
-        <v>-76940.12022847572</v>
+        <v>-76940.12022835072</v>
       </c>
       <c r="H31" t="n">
-        <v>78.414566927834</v>
+        <v>78.414566927709</v>
       </c>
       <c r="I31" t="n">
         <v>-0.01996642183</v>
@@ -50493,19 +50493,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-30086.70953678332</v>
+        <v>-30086.70953678331</v>
       </c>
       <c r="F2" t="n">
         <v>15.360762942779</v>
       </c>
       <c r="G2" t="n">
-        <v>-6600529.6538684</v>
+        <v>-6600529.653837735</v>
       </c>
       <c r="H2" t="n">
-        <v>6556.015057874417</v>
+        <v>6556.015057843882</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.627737851396</v>
+        <v>-1.627737851388</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
@@ -50574,16 +50574,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>99.199999999996</v>
+        <v>99.19999999999899</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>99.199999988713</v>
+        <v>99.199999990978</v>
       </c>
       <c r="H3" t="n">
-        <v>1.1e-11</v>
+        <v>9e-12</v>
       </c>
       <c r="I3" t="n">
         <v>-0</v>
@@ -50627,19 +50627,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>5960.374206292522</v>
+        <v>5960.374206292844</v>
       </c>
       <c r="F4" t="n">
         <v>-2.893410469874</v>
       </c>
       <c r="G4" t="n">
-        <v>-2754914.747504272</v>
+        <v>-2754914.747558852</v>
       </c>
       <c r="H4" t="n">
-        <v>2744.973808631798</v>
+        <v>2744.973808686088</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.68372542817</v>
+        <v>-0.683725428183</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="n">
@@ -50753,19 +50753,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>-100586.676023393</v>
+        <v>-100586.6760233916</v>
       </c>
       <c r="F6" t="n">
         <v>52.00701754386</v>
       </c>
       <c r="G6" t="n">
-        <v>-31751027.90978483</v>
+        <v>-31751027.90814846</v>
       </c>
       <c r="H6" t="n">
-        <v>31560.90653147133</v>
+        <v>31560.90652984337</v>
       </c>
       <c r="I6" t="n">
-        <v>-7.841936165736</v>
+        <v>-7.841936165331</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="n">
@@ -50836,16 +50836,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>-418.332947650595</v>
+        <v>-418.332947650609</v>
       </c>
       <c r="F7" t="n">
         <v>0.211316494991</v>
       </c>
       <c r="G7" t="n">
-        <v>283.376386924724</v>
+        <v>283.376386195164</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.487086726022</v>
+        <v>-0.487086725296</v>
       </c>
       <c r="I7" t="n">
         <v>0.000173776971</v>
@@ -50915,19 +50915,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>2218.785155919005</v>
+        <v>2218.785155919134</v>
       </c>
       <c r="F8" t="n">
         <v>-1.089205587696</v>
       </c>
       <c r="G8" t="n">
-        <v>-1204422.022076278</v>
+        <v>-1204422.022098943</v>
       </c>
       <c r="H8" t="n">
-        <v>1199.866496229569</v>
+        <v>1199.866496252113</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.298822281415</v>
+        <v>-0.298822281421</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="n">
@@ -50994,19 +50994,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>26768.94502924013</v>
+        <v>26768.94502923912</v>
       </c>
       <c r="F9" t="n">
         <v>-13.042105263158</v>
       </c>
       <c r="G9" t="n">
-        <v>-11721623.82270408</v>
+        <v>-11721623.82197951</v>
       </c>
       <c r="H9" t="n">
-        <v>11682.81149862886</v>
+        <v>11682.81149790794</v>
       </c>
       <c r="I9" t="n">
-        <v>-2.910864510675</v>
+        <v>-2.910864510496</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="n">
@@ -51077,19 +51077,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>24370.29450292422</v>
+        <v>24370.29450292365</v>
       </c>
       <c r="F10" t="n">
         <v>-11.524210526316</v>
       </c>
       <c r="G10" t="n">
-        <v>-2038399.835648077</v>
+        <v>-2038399.835382472</v>
       </c>
       <c r="H10" t="n">
-        <v>2042.021149907027</v>
+        <v>2042.021149642682</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.511086451078</v>
+        <v>-0.511086451013</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
@@ -51207,19 +51207,19 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>64810.48608187201</v>
+        <v>64810.48608187042</v>
       </c>
       <c r="F12" t="n">
         <v>-32.037894736842</v>
       </c>
       <c r="G12" t="n">
-        <v>2384749.728719952</v>
+        <v>2384749.72870306</v>
       </c>
       <c r="H12" t="n">
-        <v>-2341.602299694522</v>
+        <v>-2341.602299677787</v>
       </c>
       <c r="I12" t="n">
-        <v>0.574804481075</v>
+        <v>0.57480448107</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
@@ -51384,19 +51384,19 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>-26349.1201354575</v>
+        <v>-26349.12013545829</v>
       </c>
       <c r="F15" t="n">
-        <v>13.221391279807</v>
+        <v>13.221391279808</v>
       </c>
       <c r="G15" t="n">
-        <v>-103448.8371673908</v>
+        <v>-103448.8371849464</v>
       </c>
       <c r="H15" t="n">
-        <v>89.95785189262899</v>
+        <v>89.957851910101</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.019093597036</v>
+        <v>-0.01909359704</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="n">
@@ -51463,19 +51463,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>-18426.72552225208</v>
+        <v>-18426.72552225204</v>
       </c>
       <c r="F16" t="n">
         <v>9.487375113533</v>
       </c>
       <c r="G16" t="n">
-        <v>-5064641.877747637</v>
+        <v>-5064641.87775825</v>
       </c>
       <c r="H16" t="n">
-        <v>5032.824323351743</v>
+        <v>5032.824323362303</v>
       </c>
       <c r="I16" t="n">
-        <v>-1.250131152368</v>
+        <v>-1.250131152371</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="n">
@@ -51544,16 +51544,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>-1470.989925215126</v>
+        <v>-1470.989925215149</v>
       </c>
       <c r="F17" t="n">
         <v>0.759023564273</v>
       </c>
       <c r="G17" t="n">
-        <v>-136950.539150142</v>
+        <v>-136950.5391514791</v>
       </c>
       <c r="H17" t="n">
-        <v>135.60025895604</v>
+        <v>135.600258957369</v>
       </c>
       <c r="I17" t="n">
         <v>-0.033551250498</v>
@@ -51623,19 +51623,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>7107.658755466355</v>
+        <v>7107.658755467011</v>
       </c>
       <c r="F18" t="n">
-        <v>-3.378467616762</v>
+        <v>-3.378467616763</v>
       </c>
       <c r="G18" t="n">
-        <v>-1031711.526452833</v>
+        <v>-1031711.526407073</v>
       </c>
       <c r="H18" t="n">
-        <v>1030.54630614816</v>
+        <v>1030.546306102603</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.257261578625</v>
+        <v>-0.257261578614</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="n">
@@ -51702,19 +51702,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>-5064.285593339564</v>
+        <v>-5064.285593339731</v>
       </c>
       <c r="F19" t="n">
         <v>2.566614928743</v>
       </c>
       <c r="G19" t="n">
-        <v>-311981.8146619988</v>
+        <v>-311981.8146808504</v>
       </c>
       <c r="H19" t="n">
-        <v>308.038097671115</v>
+        <v>308.038097689874</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.07600753736599999</v>
+        <v>-0.07600753737</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="n">
@@ -51781,19 +51781,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>34794.72201964266</v>
+        <v>34794.72201963801</v>
       </c>
       <c r="F20" t="n">
-        <v>-17.166900420761</v>
+        <v>-17.166900420759</v>
       </c>
       <c r="G20" t="n">
-        <v>-6370832.50705069</v>
+        <v>-6370832.506951421</v>
       </c>
       <c r="H20" t="n">
-        <v>6348.676974231341</v>
+        <v>6348.676974132989</v>
       </c>
       <c r="I20" t="n">
-        <v>-1.581572260197</v>
+        <v>-1.581572260173</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -51850,16 +51850,16 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>-133.312322274866</v>
+        <v>-133.312322274862</v>
       </c>
       <c r="F21" t="n">
         <v>0.072511848341</v>
       </c>
       <c r="G21" t="n">
-        <v>-18137.23347695192</v>
+        <v>-18137.23347714539</v>
       </c>
       <c r="H21" t="n">
-        <v>17.982906970169</v>
+        <v>17.982906970361</v>
       </c>
       <c r="I21" t="n">
         <v>-0.004454313907</v>
@@ -51933,10 +51933,10 @@
         <v>-0</v>
       </c>
       <c r="G22" t="n">
-        <v>60.800000000727</v>
+        <v>60.800000000463</v>
       </c>
       <c r="H22" t="n">
-        <v>-1e-12</v>
+        <v>-0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -52004,19 +52004,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>2575.130577112758</v>
+        <v>2575.130577112883</v>
       </c>
       <c r="F23" t="n">
         <v>-1.236969098349</v>
       </c>
       <c r="G23" t="n">
-        <v>-931847.3335452853</v>
+        <v>-931847.3335634627</v>
       </c>
       <c r="H23" t="n">
-        <v>928.782950224655</v>
+        <v>928.782950242736</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.231407930895</v>
+        <v>-0.231407930899</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
@@ -52083,19 +52083,19 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>20363.0386905589</v>
+        <v>20363.03869055946</v>
       </c>
       <c r="F24" t="n">
         <v>-10.059884295188</v>
       </c>
       <c r="G24" t="n">
-        <v>2490827.491851914</v>
+        <v>2490827.491926982</v>
       </c>
       <c r="H24" t="n">
-        <v>-2468.884708864599</v>
+        <v>-2468.884708939283</v>
       </c>
       <c r="I24" t="n">
-        <v>0.611805783149</v>
+        <v>0.6118057831680001</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="n">
@@ -52162,19 +52162,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>35246.39111111125</v>
+        <v>35246.39111111092</v>
       </c>
       <c r="F25" t="n">
         <v>-17.253333333333</v>
       </c>
       <c r="G25" t="n">
-        <v>-2249630.152884868</v>
+        <v>-2249630.152326225</v>
       </c>
       <c r="H25" t="n">
-        <v>2257.405174419267</v>
+        <v>2257.405173863203</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.566117099988</v>
+        <v>-0.56611709985</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="n">
@@ -52245,19 +52245,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>-12353.25085367532</v>
+        <v>-12353.25085367549</v>
       </c>
       <c r="F26" t="n">
         <v>6.263976294624</v>
       </c>
       <c r="G26" t="n">
-        <v>-2621573.997394415</v>
+        <v>-2621573.9974381</v>
       </c>
       <c r="H26" t="n">
-        <v>2603.191341983327</v>
+        <v>2603.191342026775</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.646168513052</v>
+        <v>-0.646168513063</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
@@ -52324,19 +52324,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>4241.801326372276</v>
+        <v>4241.801326372256</v>
       </c>
       <c r="F27" t="n">
         <v>-2.092789614788</v>
       </c>
       <c r="G27" t="n">
-        <v>2145489.69715944</v>
+        <v>2145489.697201747</v>
       </c>
       <c r="H27" t="n">
-        <v>-2133.252165372658</v>
+        <v>-2133.252165414739</v>
       </c>
       <c r="I27" t="n">
-        <v>0.530275934208</v>
+        <v>0.530275934218</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
